--- a/results/yq_test/GHZ_cz/Rb2Re4/GHZ_cz_total.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/GHZ_cz_total.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/GHZ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_63C545BCDD2AD466A983C8F0505ED87656CDD4AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9016FF7E-DAE2-F540-B278-8BC8EC0DA67B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_63C545BCDD2AD466A983C8F0505ED87656CDD4AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F1D2D8-467E-3F43-90FD-00D1ECE3DA18}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$E$2:$E$47</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$E$2:$E$47</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1948,16 +1942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2272,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B2:B47 E2:E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/results/yq_test/GHZ_cz/Rb2Re4/GHZ_cz_total.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/GHZ_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/GHZ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_63C545BCDD2AD466A983C8F0505ED87656CDD4AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F1D2D8-467E-3F43-90FD-00D1ECE3DA18}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_63C545BCDD2AD466A983C8F0505ED87656CDD4AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{181AB895-E96B-0F4F-8146-B2BF0C68E8C0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -353,10 +353,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
               <a:t>GHZ circuits</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -373,7 +373,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -392,8 +392,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -404,7 +404,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -413,7 +413,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$47</c:f>
               <c:numCache>
@@ -559,8 +559,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$E$2:$E$47</c:f>
               <c:numCache>
@@ -706,8 +706,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A244-2C40-9765-AB3ECFF59B14}"/>
@@ -723,7 +723,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -732,7 +732,154 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$L$2:$L$47</c:f>
               <c:numCache>
@@ -878,8 +1025,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A244-2C40-9765-AB3ECFF59B14}"/>
@@ -895,7 +1042,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -904,7 +1051,154 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$Q$2:$Q$47</c:f>
               <c:numCache>
@@ -1050,8 +1344,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A244-2C40-9765-AB3ECFF59B14}"/>
@@ -1066,14 +1360,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="343267519"/>
         <c:axId val="342997855"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="343267519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1098,7 +1393,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1111,10 +1406,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1131,7 +1426,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1169,7 +1464,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1186,12 +1481,10 @@
         </c:txPr>
         <c:crossAx val="342997855"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="342997855"/>
         <c:scaling>
@@ -1222,7 +1515,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1235,10 +1528,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Fidelity</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1255,7 +1548,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1287,7 +1580,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1304,7 +1597,7 @@
         </c:txPr>
         <c:crossAx val="343267519"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1329,7 +1622,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1942,16 +2235,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2266,7 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>

--- a/results/yq_test/GHZ_cz/Rb2Re4/GHZ_cz_total.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/GHZ_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/GHZ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_63C545BCDD2AD466A983C8F0505ED87656CDD4AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{181AB895-E96B-0F4F-8146-B2BF0C68E8C0}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_63C545BCDD2AD466A983C8F0505ED87656CDD4AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3431F56-B193-EC45-9CBD-08A4722B553E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2235,16 +2235,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2559,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
